--- a/collating_results/collated_results_synthetic.xlsx
+++ b/collating_results/collated_results_synthetic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="477">
   <si>
     <t>n36_gaussian_mixture_d1</t>
   </si>
@@ -106,6 +106,12 @@
     <t>LABEL_PROPAGATION</t>
   </si>
   <si>
+    <t>ASSFSCMR</t>
+  </si>
+  <si>
+    <t>SFAMCAMT</t>
+  </si>
+  <si>
     <t>PARTIAL_SUPERVISED_CLASSIFIER</t>
   </si>
   <si>
@@ -115,9 +121,249 @@
     <t>psup_baseline</t>
   </si>
   <si>
+    <t>5.644 ± 4.253</t>
+  </si>
+  <si>
+    <t>0.910 ± 3.079</t>
+  </si>
+  <si>
     <t>nan ± nan</t>
   </si>
   <si>
+    <t>-0.096 ± 4.074</t>
+  </si>
+  <si>
+    <t>-0.646 ± 4.047</t>
+  </si>
+  <si>
+    <t>0.039 ± 2.739</t>
+  </si>
+  <si>
+    <t>0.388 ± 2.852</t>
+  </si>
+  <si>
+    <t>-0.065 ± 2.188</t>
+  </si>
+  <si>
+    <t>-0.778 ± 2.898</t>
+  </si>
+  <si>
+    <t>-1.040 ± 7.404</t>
+  </si>
+  <si>
+    <t>0.000 ± 0.000</t>
+  </si>
+  <si>
+    <t>62.606 ± 5.013</t>
+  </si>
+  <si>
+    <t>8.090 ± 4.371</t>
+  </si>
+  <si>
+    <t>1.681 ± 5.558</t>
+  </si>
+  <si>
+    <t>-14.860 ± 16.499</t>
+  </si>
+  <si>
+    <t>-1.666 ± 9.958</t>
+  </si>
+  <si>
+    <t>0.554 ± 4.256</t>
+  </si>
+  <si>
+    <t>1.286 ± 4.459</t>
+  </si>
+  <si>
+    <t>-0.154 ± 2.775</t>
+  </si>
+  <si>
+    <t>-0.080 ± 6.707</t>
+  </si>
+  <si>
+    <t>-18.439 ± 5.199</t>
+  </si>
+  <si>
+    <t>89.936 ± 4.276</t>
+  </si>
+  <si>
+    <t>21.804 ± 6.904</t>
+  </si>
+  <si>
+    <t>10.158 ± 8.177</t>
+  </si>
+  <si>
+    <t>15.418 ± 8.685</t>
+  </si>
+  <si>
+    <t>4.317 ± 6.887</t>
+  </si>
+  <si>
+    <t>-4.626 ± 7.432</t>
+  </si>
+  <si>
+    <t>-0.452 ± 5.821</t>
+  </si>
+  <si>
+    <t>4.278 ± 5.608</t>
+  </si>
+  <si>
+    <t>0.040 ± 3.818</t>
+  </si>
+  <si>
+    <t>-0.260 ± 5.672</t>
+  </si>
+  <si>
+    <t>-6.518 ± 12.063</t>
+  </si>
+  <si>
+    <t>1.089 ± 8.370</t>
+  </si>
+  <si>
+    <t>76.082 ± 6.984</t>
+  </si>
+  <si>
+    <t>21.873 ± 5.366</t>
+  </si>
+  <si>
+    <t>2.326 ± 8.005</t>
+  </si>
+  <si>
+    <t>3.002 ± 5.981</t>
+  </si>
+  <si>
+    <t>-4.152 ± 6.669</t>
+  </si>
+  <si>
+    <t>0.141 ± 6.033</t>
+  </si>
+  <si>
+    <t>2.232 ± 5.221</t>
+  </si>
+  <si>
+    <t>0.328 ± 3.920</t>
+  </si>
+  <si>
+    <t>1.512 ± 4.909</t>
+  </si>
+  <si>
+    <t>-3.561 ± 11.173</t>
+  </si>
+  <si>
+    <t>-0.055 ± 6.757</t>
+  </si>
+  <si>
+    <t>76.534 ± 5.576</t>
+  </si>
+  <si>
+    <t>20.842 ± 7.497</t>
+  </si>
+  <si>
+    <t>-2.187 ± 8.314</t>
+  </si>
+  <si>
+    <t>7.686 ± 9.035</t>
+  </si>
+  <si>
+    <t>3.436 ± 7.193</t>
+  </si>
+  <si>
+    <t>-4.491 ± 7.747</t>
+  </si>
+  <si>
+    <t>0.075 ± 5.920</t>
+  </si>
+  <si>
+    <t>3.330 ± 6.414</t>
+  </si>
+  <si>
+    <t>0.133 ± 4.240</t>
+  </si>
+  <si>
+    <t>-0.927 ± 6.005</t>
+  </si>
+  <si>
+    <t>-3.500 ± 12.425</t>
+  </si>
+  <si>
+    <t>3.350 ± 7.946</t>
+  </si>
+  <si>
+    <t>77.672 ± 7.674</t>
+  </si>
+  <si>
+    <t>24.025 ± 4.625</t>
+  </si>
+  <si>
+    <t>0.870 ± 8.365</t>
+  </si>
+  <si>
+    <t>2.668 ± 9.886</t>
+  </si>
+  <si>
+    <t>2.761 ± 5.146</t>
+  </si>
+  <si>
+    <t>-1.083 ± 5.234</t>
+  </si>
+  <si>
+    <t>-0.078 ± 5.395</t>
+  </si>
+  <si>
+    <t>1.011 ± 3.638</t>
+  </si>
+  <si>
+    <t>-0.021 ± 3.921</t>
+  </si>
+  <si>
+    <t>1.216 ± 4.212</t>
+  </si>
+  <si>
+    <t>-0.265 ± 13.454</t>
+  </si>
+  <si>
+    <t>8.278 ± 4.407</t>
+  </si>
+  <si>
+    <t>74.564 ± 4.580</t>
+  </si>
+  <si>
+    <t>26.584 ± 5.119</t>
+  </si>
+  <si>
+    <t>8.524 ± 7.636</t>
+  </si>
+  <si>
+    <t>14.193 ± 9.504</t>
+  </si>
+  <si>
+    <t>1.511 ± 5.900</t>
+  </si>
+  <si>
+    <t>-1.709 ± 5.816</t>
+  </si>
+  <si>
+    <t>-0.687 ± 5.497</t>
+  </si>
+  <si>
+    <t>2.700 ± 5.197</t>
+  </si>
+  <si>
+    <t>-0.064 ± 3.796</t>
+  </si>
+  <si>
+    <t>1.018 ± 4.410</t>
+  </si>
+  <si>
+    <t>-2.131 ± 10.692</t>
+  </si>
+  <si>
+    <t>7.287 ± 5.737</t>
+  </si>
+  <si>
+    <t>72.251 ± 5.149</t>
+  </si>
+  <si>
     <t>4.762 ± 3.970</t>
   </si>
   <si>
@@ -142,7 +388,7 @@
     <t>-0.017 ± 3.030</t>
   </si>
   <si>
-    <t>0.000 ± 0.000</t>
+    <t>-0.827 ± 4.212</t>
   </si>
   <si>
     <t>62.662 ± 4.184</t>
@@ -172,6 +418,9 @@
     <t>0.551 ± 6.359</t>
   </si>
   <si>
+    <t>-19.619 ± 5.257</t>
+  </si>
+  <si>
     <t>88.894 ± 4.976</t>
   </si>
   <si>
@@ -202,6 +451,12 @@
     <t>-2.480 ± 6.874</t>
   </si>
   <si>
+    <t>3.149 ± 15.598</t>
+  </si>
+  <si>
+    <t>1.806 ± 7.205</t>
+  </si>
+  <si>
     <t>74.896 ± 7.075</t>
   </si>
   <si>
@@ -229,6 +484,12 @@
     <t>1.728 ± 6.816</t>
   </si>
   <si>
+    <t>-15.380 ± 15.585</t>
+  </si>
+  <si>
+    <t>-3.635 ± 6.936</t>
+  </si>
+  <si>
     <t>79.716 ± 6.911</t>
   </si>
   <si>
@@ -238,7 +499,7 @@
     <t>2.211 ± 6.751</t>
   </si>
   <si>
-    <t>8.840 ± nan</t>
+    <t>9.507 ± 6.877</t>
   </si>
   <si>
     <t>-0.722 ± 5.159</t>
@@ -259,6 +520,12 @@
     <t>0.206 ± 6.763</t>
   </si>
   <si>
+    <t>-8.357 ± 13.342</t>
+  </si>
+  <si>
+    <t>0.888 ± 6.309</t>
+  </si>
+  <si>
     <t>79.801 ± 6.211</t>
   </si>
   <si>
@@ -268,6 +535,9 @@
     <t>7.475 ± 5.334</t>
   </si>
   <si>
+    <t>14.059 ± 7.229</t>
+  </si>
+  <si>
     <t>0.645 ± 4.613</t>
   </si>
   <si>
@@ -286,6 +556,12 @@
     <t>1.328 ± 4.391</t>
   </si>
   <si>
+    <t>-8.641 ± 20.326</t>
+  </si>
+  <si>
+    <t>7.717 ± 4.731</t>
+  </si>
+  <si>
     <t>74.904 ± 4.631</t>
   </si>
   <si>
@@ -295,6 +571,9 @@
     <t>10.483 ± 5.980</t>
   </si>
   <si>
+    <t>22.073 ± 6.799</t>
+  </si>
+  <si>
     <t>0.909 ± 4.427</t>
   </si>
   <si>
@@ -313,12 +592,21 @@
     <t>1.055 ± 4.412</t>
   </si>
   <si>
+    <t>-3.220 ± 15.020</t>
+  </si>
+  <si>
+    <t>9.027 ± 4.944</t>
+  </si>
+  <si>
     <t>70.284 ± 4.434</t>
   </si>
   <si>
     <t>3.807 ± 4.189</t>
   </si>
   <si>
+    <t>0.156 ± 2.700</t>
+  </si>
+  <si>
     <t>-0.235 ± 3.001</t>
   </si>
   <si>
@@ -328,10 +616,16 @@
     <t>-0.204 ± 2.637</t>
   </si>
   <si>
+    <t>-0.173 ± 2.990</t>
+  </si>
+  <si>
     <t>-0.157 ± 1.674</t>
   </si>
   <si>
-    <t>-2.531 ± 4.211</t>
+    <t>-0.489 ± 2.351</t>
+  </si>
+  <si>
+    <t>-1.220 ± 3.995</t>
   </si>
   <si>
     <t>63.471 ± 4.211</t>
@@ -340,6 +634,9 @@
     <t>11.070 ± 6.695</t>
   </si>
   <si>
+    <t>3.665 ± 6.240</t>
+  </si>
+  <si>
     <t>0.115 ± 6.719</t>
   </si>
   <si>
@@ -349,10 +646,16 @@
     <t>-2.236 ± 8.543</t>
   </si>
   <si>
+    <t>4.749 ± 6.208</t>
+  </si>
+  <si>
     <t>-0.094 ± 5.740</t>
   </si>
   <si>
-    <t>5.496 ± 6.915</t>
+    <t>-4.992 ± 9.128</t>
+  </si>
+  <si>
+    <t>-16.628 ± 6.839</t>
   </si>
   <si>
     <t>86.504 ± 6.915</t>
@@ -361,6 +664,12 @@
     <t>25.280 ± 7.511</t>
   </si>
   <si>
+    <t>12.251 ± 8.658</t>
+  </si>
+  <si>
+    <t>16.905 ± 10.092</t>
+  </si>
+  <si>
     <t>0.003 ± 6.865</t>
   </si>
   <si>
@@ -376,7 +685,13 @@
     <t>0.268 ± 5.258</t>
   </si>
   <si>
-    <t>4.124 ± 7.448</t>
+    <t>-2.134 ± 6.424</t>
+  </si>
+  <si>
+    <t>6.670 ± 14.405</t>
+  </si>
+  <si>
+    <t>5.568 ± 7.517</t>
   </si>
   <si>
     <t>71.176 ± 7.448</t>
@@ -385,6 +700,9 @@
     <t>22.218 ± 6.209</t>
   </si>
   <si>
+    <t>5.948 ± 6.882</t>
+  </si>
+  <si>
     <t>-0.618 ± 6.651</t>
   </si>
   <si>
@@ -400,7 +718,13 @@
     <t>-0.469 ± 4.782</t>
   </si>
   <si>
-    <t>-1.972 ± 5.965</t>
+    <t>-1.778 ± 6.216</t>
+  </si>
+  <si>
+    <t>-10.946 ± 17.228</t>
+  </si>
+  <si>
+    <t>0.891 ± 6.320</t>
   </si>
   <si>
     <t>75.472 ± 5.965</t>
@@ -409,6 +733,12 @@
     <t>21.670 ± 8.066</t>
   </si>
   <si>
+    <t>4.559 ± 7.274</t>
+  </si>
+  <si>
+    <t>12.382 ± 7.997</t>
+  </si>
+  <si>
     <t>0.307 ± 6.081</t>
   </si>
   <si>
@@ -424,7 +754,13 @@
     <t>0.093 ± 4.775</t>
   </si>
   <si>
-    <t>-2.724 ± 7.781</t>
+    <t>-2.517 ± 6.901</t>
+  </si>
+  <si>
+    <t>-1.850 ± 13.402</t>
+  </si>
+  <si>
+    <t>5.196 ± 7.620</t>
   </si>
   <si>
     <t>75.804 ± 7.781</t>
@@ -433,6 +769,12 @@
     <t>24.159 ± 6.006</t>
   </si>
   <si>
+    <t>6.533 ± 6.179</t>
+  </si>
+  <si>
+    <t>12.559 ± 6.947</t>
+  </si>
+  <si>
     <t>0.892 ± 4.723</t>
   </si>
   <si>
@@ -445,7 +787,16 @@
     <t>4.858 ± 5.291</t>
   </si>
   <si>
-    <t>0.872 ± 5.385</t>
+    <t>0.255 ± 3.619</t>
+  </si>
+  <si>
+    <t>-0.384 ± 4.139</t>
+  </si>
+  <si>
+    <t>3.036 ± 13.362</t>
+  </si>
+  <si>
+    <t>9.301 ± 5.079</t>
   </si>
   <si>
     <t>73.070 ± 5.693</t>
@@ -454,9 +805,36 @@
     <t>27.823 ± 4.845</t>
   </si>
   <si>
+    <t>9.678 ± 6.442</t>
+  </si>
+  <si>
+    <t>20.184 ± 5.884</t>
+  </si>
+  <si>
     <t>-0.096 ± 5.310</t>
   </si>
   <si>
+    <t>-4.280 ± 6.722</t>
+  </si>
+  <si>
+    <t>-0.735 ± 4.799</t>
+  </si>
+  <si>
+    <t>5.742 ± 6.064</t>
+  </si>
+  <si>
+    <t>-0.424 ± 3.530</t>
+  </si>
+  <si>
+    <t>-0.626 ± 3.809</t>
+  </si>
+  <si>
+    <t>3.194 ± 10.386</t>
+  </si>
+  <si>
+    <t>9.624 ± 4.572</t>
+  </si>
+  <si>
     <t>69.594 ± 4.324</t>
   </si>
   <si>
@@ -466,6 +844,207 @@
     <t>test_set</t>
   </si>
   <si>
+    <t>4.994 ± 4.457</t>
+  </si>
+  <si>
+    <t>0.892 ± 3.208</t>
+  </si>
+  <si>
+    <t>-0.117 ± 4.004</t>
+  </si>
+  <si>
+    <t>-0.633 ± 4.123</t>
+  </si>
+  <si>
+    <t>0.189 ± 2.912</t>
+  </si>
+  <si>
+    <t>0.689 ± 2.995</t>
+  </si>
+  <si>
+    <t>-0.036 ± 2.095</t>
+  </si>
+  <si>
+    <t>-0.631 ± 3.116</t>
+  </si>
+  <si>
+    <t>62.859 ± 4.947</t>
+  </si>
+  <si>
+    <t>7.824 ± 4.507</t>
+  </si>
+  <si>
+    <t>1.715 ± 5.624</t>
+  </si>
+  <si>
+    <t>-14.882 ± 16.582</t>
+  </si>
+  <si>
+    <t>-1.574 ± 9.770</t>
+  </si>
+  <si>
+    <t>0.525 ± 4.128</t>
+  </si>
+  <si>
+    <t>1.346 ± 4.373</t>
+  </si>
+  <si>
+    <t>-0.052 ± 2.607</t>
+  </si>
+  <si>
+    <t>0.017 ± 6.526</t>
+  </si>
+  <si>
+    <t>89.933 ± 4.283</t>
+  </si>
+  <si>
+    <t>20.862 ± 7.111</t>
+  </si>
+  <si>
+    <t>10.104 ± 8.313</t>
+  </si>
+  <si>
+    <t>15.236 ± 9.026</t>
+  </si>
+  <si>
+    <t>4.214 ± 6.765</t>
+  </si>
+  <si>
+    <t>-4.619 ± 7.725</t>
+  </si>
+  <si>
+    <t>-0.480 ± 5.738</t>
+  </si>
+  <si>
+    <t>4.116 ± 5.579</t>
+  </si>
+  <si>
+    <t>0.065 ± 3.813</t>
+  </si>
+  <si>
+    <t>-0.346 ± 5.889</t>
+  </si>
+  <si>
+    <t>76.253 ± 7.178</t>
+  </si>
+  <si>
+    <t>21.012 ± 5.385</t>
+  </si>
+  <si>
+    <t>2.187 ± 7.725</t>
+  </si>
+  <si>
+    <t>3.188 ± 6.039</t>
+  </si>
+  <si>
+    <t>-4.234 ± 6.602</t>
+  </si>
+  <si>
+    <t>0.156 ± 6.404</t>
+  </si>
+  <si>
+    <t>2.367 ± 5.238</t>
+  </si>
+  <si>
+    <t>0.376 ± 3.981</t>
+  </si>
+  <si>
+    <t>1.454 ± 4.933</t>
+  </si>
+  <si>
+    <t>76.748 ± 5.461</t>
+  </si>
+  <si>
+    <t>20.027 ± 7.571</t>
+  </si>
+  <si>
+    <t>-2.019 ± 8.304</t>
+  </si>
+  <si>
+    <t>7.519 ± 9.035</t>
+  </si>
+  <si>
+    <t>3.631 ± 7.113</t>
+  </si>
+  <si>
+    <t>-4.262 ± 7.521</t>
+  </si>
+  <si>
+    <t>0.237 ± 5.684</t>
+  </si>
+  <si>
+    <t>3.284 ± 6.433</t>
+  </si>
+  <si>
+    <t>0.222 ± 4.151</t>
+  </si>
+  <si>
+    <t>-0.949 ± 5.975</t>
+  </si>
+  <si>
+    <t>77.837 ± 7.745</t>
+  </si>
+  <si>
+    <t>23.201 ± 4.483</t>
+  </si>
+  <si>
+    <t>0.958 ± 8.041</t>
+  </si>
+  <si>
+    <t>2.802 ± 9.479</t>
+  </si>
+  <si>
+    <t>3.045 ± 5.088</t>
+  </si>
+  <si>
+    <t>-0.997 ± 5.083</t>
+  </si>
+  <si>
+    <t>-0.084 ± 5.667</t>
+  </si>
+  <si>
+    <t>0.990 ± 3.709</t>
+  </si>
+  <si>
+    <t>0.220 ± 4.337</t>
+  </si>
+  <si>
+    <t>1.516 ± 4.395</t>
+  </si>
+  <si>
+    <t>74.487 ± 4.461</t>
+  </si>
+  <si>
+    <t>25.642 ± 4.879</t>
+  </si>
+  <si>
+    <t>8.566 ± 7.737</t>
+  </si>
+  <si>
+    <t>14.232 ± 9.562</t>
+  </si>
+  <si>
+    <t>1.470 ± 5.637</t>
+  </si>
+  <si>
+    <t>-1.840 ± 5.716</t>
+  </si>
+  <si>
+    <t>-0.882 ± 5.378</t>
+  </si>
+  <si>
+    <t>2.427 ± 4.939</t>
+  </si>
+  <si>
+    <t>-0.043 ± 3.701</t>
+  </si>
+  <si>
+    <t>1.126 ± 4.427</t>
+  </si>
+  <si>
+    <t>72.387 ± 4.928</t>
+  </si>
+  <si>
     <t>4.538 ± 4.027</t>
   </si>
   <si>
@@ -583,7 +1162,7 @@
     <t>2.439 ± 6.942</t>
   </si>
   <si>
-    <t>8.600 ± nan</t>
+    <t>9.605 ± 7.198</t>
   </si>
   <si>
     <t>-0.680 ± 5.209</t>
@@ -613,6 +1192,9 @@
     <t>7.514 ± 5.298</t>
   </si>
   <si>
+    <t>14.150 ± 7.290</t>
+  </si>
+  <si>
     <t>0.685 ± 4.857</t>
   </si>
   <si>
@@ -640,6 +1222,9 @@
     <t>10.402 ± 5.986</t>
   </si>
   <si>
+    <t>22.175 ± 6.799</t>
+  </si>
+  <si>
     <t>0.989 ± 4.538</t>
   </si>
   <si>
@@ -664,6 +1249,9 @@
     <t>3.739 ± 4.255</t>
   </si>
   <si>
+    <t>0.296 ± 3.038</t>
+  </si>
+  <si>
     <t>0.087 ± 3.299</t>
   </si>
   <si>
@@ -673,10 +1261,13 @@
     <t>-0.005 ± 2.778</t>
   </si>
   <si>
+    <t>0.041 ± 3.329</t>
+  </si>
+  <si>
     <t>0.101 ± 1.860</t>
   </si>
   <si>
-    <t>-4.591 ± 4.413</t>
+    <t>-0.303 ± 2.528</t>
   </si>
   <si>
     <t>63.432 ± 4.413</t>
@@ -685,6 +1276,9 @@
     <t>10.789 ± 6.737</t>
   </si>
   <si>
+    <t>3.612 ± 6.244</t>
+  </si>
+  <si>
     <t>-0.076 ± 6.551</t>
   </si>
   <si>
@@ -694,10 +1288,13 @@
     <t>-2.454 ± 8.357</t>
   </si>
   <si>
+    <t>4.555 ± 6.041</t>
+  </si>
+  <si>
     <t>-0.083 ± 5.722</t>
   </si>
   <si>
-    <t>3.275 ± 6.782</t>
+    <t>-5.193 ± 9.236</t>
   </si>
   <si>
     <t>86.625 ± 6.782</t>
@@ -706,6 +1303,12 @@
     <t>25.015 ± 7.723</t>
   </si>
   <si>
+    <t>12.350 ± 8.971</t>
+  </si>
+  <si>
+    <t>17.005 ± 10.293</t>
+  </si>
+  <si>
     <t>0.082 ± 6.863</t>
   </si>
   <si>
@@ -721,7 +1324,7 @@
     <t>0.199 ± 5.275</t>
   </si>
   <si>
-    <t>4.210 ± 7.778</t>
+    <t>-1.903 ± 6.747</t>
   </si>
   <si>
     <t>71.215 ± 7.778</t>
@@ -730,6 +1333,9 @@
     <t>22.137 ± 6.067</t>
   </si>
   <si>
+    <t>5.931 ± 6.962</t>
+  </si>
+  <si>
     <t>-0.692 ± 6.658</t>
   </si>
   <si>
@@ -745,7 +1351,7 @@
     <t>-0.540 ± 4.829</t>
   </si>
   <si>
-    <t>-3.029 ± 5.857</t>
+    <t>-1.724 ± 6.337</t>
   </si>
   <si>
     <t>75.329 ± 5.857</t>
@@ -754,6 +1360,12 @@
     <t>21.538 ± 8.225</t>
   </si>
   <si>
+    <t>4.392 ± 7.316</t>
+  </si>
+  <si>
+    <t>12.290 ± 8.005</t>
+  </si>
+  <si>
     <t>0.259 ± 6.104</t>
   </si>
   <si>
@@ -769,7 +1381,7 @@
     <t>0.126 ± 4.864</t>
   </si>
   <si>
-    <t>-4.146 ± 7.847</t>
+    <t>-2.499 ± 7.011</t>
   </si>
   <si>
     <t>75.675 ± 7.847</t>
@@ -778,6 +1390,12 @@
     <t>23.822 ± 6.203</t>
   </si>
   <si>
+    <t>6.236 ± 5.947</t>
+  </si>
+  <si>
+    <t>12.370 ± 6.825</t>
+  </si>
+  <si>
     <t>0.733 ± 4.801</t>
   </si>
   <si>
@@ -790,7 +1408,10 @@
     <t>4.681 ± 5.229</t>
   </si>
   <si>
-    <t>0.622 ± 5.605</t>
+    <t>0.064 ± 3.661</t>
+  </si>
+  <si>
+    <t>-0.798 ± 4.284</t>
   </si>
   <si>
     <t>73.049 ± 5.852</t>
@@ -799,7 +1420,28 @@
     <t>27.551 ± 5.069</t>
   </si>
   <si>
+    <t>9.509 ± 6.599</t>
+  </si>
+  <si>
+    <t>20.196 ± 5.941</t>
+  </si>
+  <si>
     <t>-0.126 ± 5.534</t>
+  </si>
+  <si>
+    <t>-4.435 ± 6.577</t>
+  </si>
+  <si>
+    <t>-0.886 ± 4.724</t>
+  </si>
+  <si>
+    <t>5.532 ± 6.134</t>
+  </si>
+  <si>
+    <t>-0.466 ± 3.455</t>
+  </si>
+  <si>
+    <t>-0.551 ± 3.825</t>
   </si>
   <si>
     <t>69.560 ± 4.625</t>
@@ -1160,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V30"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1816,7 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1247,67 +1889,67 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="Q4" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="R4" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="T4" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="V4" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1315,67 +1957,67 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1383,67 +2025,67 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1451,67 +2093,67 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="R7" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="S7" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="T7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="U7" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1519,67 +2161,67 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="T8" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="U8" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="V8" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1587,67 +2229,67 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="S9" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="T9" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="U9" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="V9" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1655,67 +2297,67 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="S10" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="T10" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="U10" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1723,67 +2365,67 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="Q11" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="R11" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="S11" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="T11" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="U11" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1791,67 +2433,67 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="T12" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="U12" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="V12" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1859,135 +2501,135 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="U13" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>100</v>
-      </c>
-      <c r="R14">
-        <v>100</v>
-      </c>
-      <c r="S14">
-        <v>100</v>
-      </c>
-      <c r="T14">
-        <v>100</v>
-      </c>
-      <c r="U14">
-        <v>100</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>213</v>
+      </c>
+      <c r="R14" t="s">
+        <v>225</v>
+      </c>
+      <c r="S14" t="s">
+        <v>236</v>
+      </c>
+      <c r="T14" t="s">
+        <v>248</v>
+      </c>
+      <c r="U14" t="s">
+        <v>260</v>
+      </c>
+      <c r="V14" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1995,953 +2637,1225 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" t="s">
-        <v>137</v>
-      </c>
-      <c r="U15" t="s">
-        <v>144</v>
-      </c>
-      <c r="V15" t="s">
-        <v>147</v>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>100</v>
+      </c>
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>20</v>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" t="s">
+        <v>226</v>
+      </c>
+      <c r="S17" t="s">
+        <v>237</v>
+      </c>
+      <c r="T17" t="s">
+        <v>249</v>
+      </c>
+      <c r="U17" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" t="s">
-        <v>178</v>
-      </c>
-      <c r="M19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O19" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>222</v>
-      </c>
-      <c r="R19" t="s">
-        <v>229</v>
-      </c>
-      <c r="S19" t="s">
-        <v>237</v>
-      </c>
-      <c r="T19" t="s">
-        <v>245</v>
-      </c>
-      <c r="U19" t="s">
-        <v>253</v>
-      </c>
-      <c r="V19" t="s">
-        <v>260</v>
+      <c r="A19" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" t="s">
-        <v>188</v>
-      </c>
-      <c r="N20" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" t="s">
-        <v>33</v>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>361</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
+        <v>390</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
+        <v>400</v>
       </c>
       <c r="P21" t="s">
-        <v>33</v>
+        <v>410</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="S21" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="T21" t="s">
-        <v>33</v>
+        <v>447</v>
       </c>
       <c r="U21" t="s">
-        <v>33</v>
+        <v>457</v>
       </c>
       <c r="V21" t="s">
-        <v>33</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>334</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="M22" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="O22" t="s">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="Q22" t="s">
-        <v>223</v>
+        <v>420</v>
       </c>
       <c r="R22" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="S22" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="T22" t="s">
-        <v>246</v>
+        <v>448</v>
       </c>
       <c r="U22" t="s">
-        <v>254</v>
+        <v>458</v>
       </c>
       <c r="V22" t="s">
-        <v>261</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="O23" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="S23" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s">
-        <v>247</v>
+        <v>449</v>
       </c>
       <c r="U23" t="s">
-        <v>255</v>
+        <v>459</v>
       </c>
       <c r="V23" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="M24" t="s">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>393</v>
       </c>
       <c r="O24" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="Q24" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="R24" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="S24" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="T24" t="s">
-        <v>248</v>
+        <v>450</v>
       </c>
       <c r="U24" t="s">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="V24" t="s">
-        <v>33</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="L25" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="M25" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="O25" t="s">
-        <v>211</v>
+        <v>404</v>
       </c>
       <c r="P25" t="s">
-        <v>33</v>
+        <v>413</v>
       </c>
       <c r="Q25" t="s">
-        <v>33</v>
+        <v>422</v>
       </c>
       <c r="R25" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="S25" t="s">
-        <v>241</v>
+        <v>441</v>
       </c>
       <c r="T25" t="s">
-        <v>249</v>
+        <v>451</v>
       </c>
       <c r="U25" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="V25" t="s">
-        <v>33</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="L26" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="M26" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>395</v>
       </c>
       <c r="O26" t="s">
-        <v>212</v>
+        <v>405</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>414</v>
       </c>
       <c r="Q26" t="s">
-        <v>226</v>
+        <v>423</v>
       </c>
       <c r="R26" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="S26" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="T26" t="s">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="U26" t="s">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="V26" t="s">
-        <v>33</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="L27" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="M27" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>396</v>
       </c>
       <c r="O27" t="s">
-        <v>213</v>
+        <v>406</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>415</v>
       </c>
       <c r="Q27" t="s">
-        <v>227</v>
+        <v>424</v>
       </c>
       <c r="R27" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="S27" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="T27" t="s">
-        <v>251</v>
+        <v>453</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>463</v>
       </c>
       <c r="V27" t="s">
-        <v>33</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>416</v>
       </c>
       <c r="Q28" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>435</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="U28" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="V28" t="s">
-        <v>42</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29">
-        <v>100</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
-      <c r="N29">
-        <v>100</v>
-      </c>
-      <c r="O29">
-        <v>100</v>
-      </c>
-      <c r="P29">
-        <v>100</v>
-      </c>
-      <c r="Q29">
-        <v>100</v>
-      </c>
-      <c r="R29">
-        <v>100</v>
-      </c>
-      <c r="S29">
-        <v>100</v>
-      </c>
-      <c r="T29">
-        <v>100</v>
-      </c>
-      <c r="U29">
-        <v>100</v>
-      </c>
-      <c r="V29">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H29" t="s">
+        <v>341</v>
+      </c>
+      <c r="I29" t="s">
+        <v>350</v>
+      </c>
+      <c r="J29" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" t="s">
+        <v>369</v>
+      </c>
+      <c r="L29" t="s">
+        <v>378</v>
+      </c>
+      <c r="M29" t="s">
+        <v>388</v>
+      </c>
+      <c r="N29" t="s">
+        <v>398</v>
+      </c>
+      <c r="O29" t="s">
+        <v>408</v>
+      </c>
+      <c r="P29" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>426</v>
+      </c>
+      <c r="R29" t="s">
+        <v>436</v>
+      </c>
+      <c r="S29" t="s">
+        <v>445</v>
+      </c>
+      <c r="T29" t="s">
+        <v>455</v>
+      </c>
+      <c r="U29" t="s">
+        <v>465</v>
+      </c>
+      <c r="V29" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" t="s">
-        <v>186</v>
-      </c>
-      <c r="M30" t="s">
-        <v>196</v>
-      </c>
-      <c r="N30" t="s">
-        <v>205</v>
-      </c>
-      <c r="O30" t="s">
-        <v>214</v>
-      </c>
-      <c r="P30" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>228</v>
-      </c>
-      <c r="R30" t="s">
-        <v>236</v>
-      </c>
-      <c r="S30" t="s">
-        <v>244</v>
-      </c>
-      <c r="T30" t="s">
-        <v>252</v>
-      </c>
-      <c r="U30" t="s">
-        <v>259</v>
-      </c>
-      <c r="V30" t="s">
-        <v>262</v>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>100</v>
+      </c>
+      <c r="R33">
+        <v>100</v>
+      </c>
+      <c r="S33">
+        <v>100</v>
+      </c>
+      <c r="T33">
+        <v>100</v>
+      </c>
+      <c r="U33">
+        <v>100</v>
+      </c>
+      <c r="V33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" t="s">
+        <v>342</v>
+      </c>
+      <c r="I34" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" t="s">
+        <v>360</v>
+      </c>
+      <c r="K34" t="s">
+        <v>370</v>
+      </c>
+      <c r="L34" t="s">
+        <v>379</v>
+      </c>
+      <c r="M34" t="s">
+        <v>389</v>
+      </c>
+      <c r="N34" t="s">
+        <v>399</v>
+      </c>
+      <c r="O34" t="s">
+        <v>409</v>
+      </c>
+      <c r="P34" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>427</v>
+      </c>
+      <c r="R34" t="s">
+        <v>437</v>
+      </c>
+      <c r="S34" t="s">
+        <v>446</v>
+      </c>
+      <c r="T34" t="s">
+        <v>456</v>
+      </c>
+      <c r="U34" t="s">
+        <v>466</v>
+      </c>
+      <c r="V34" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/collating_results/collated_results_synthetic.xlsx
+++ b/collating_results/collated_results_synthetic.xlsx
@@ -130,7 +130,7 @@
     <t>nan ± nan</t>
   </si>
   <si>
-    <t>-0.096 ± 4.074</t>
+    <t>-5.479 ± 7.035</t>
   </si>
   <si>
     <t>-0.646 ± 4.047</t>
@@ -163,7 +163,7 @@
     <t>1.681 ± 5.558</t>
   </si>
   <si>
-    <t>-14.860 ± 16.499</t>
+    <t>-36.266 ± 5.888</t>
   </si>
   <si>
     <t>-1.666 ± 9.958</t>
@@ -196,7 +196,7 @@
     <t>15.418 ± 8.685</t>
   </si>
   <si>
-    <t>4.317 ± 6.887</t>
+    <t>-20.639 ± 9.041</t>
   </si>
   <si>
     <t>-4.626 ± 7.432</t>
@@ -229,7 +229,7 @@
     <t>2.326 ± 8.005</t>
   </si>
   <si>
-    <t>3.002 ± 5.981</t>
+    <t>-17.963 ± 6.781</t>
   </si>
   <si>
     <t>-4.152 ± 6.669</t>
@@ -265,7 +265,7 @@
     <t>7.686 ± 9.035</t>
   </si>
   <si>
-    <t>3.436 ± 7.193</t>
+    <t>-19.668 ± 8.995</t>
   </si>
   <si>
     <t>-4.491 ± 7.747</t>
@@ -301,7 +301,7 @@
     <t>2.668 ± 9.886</t>
   </si>
   <si>
-    <t>2.761 ± 5.146</t>
+    <t>-14.349 ± 6.545</t>
   </si>
   <si>
     <t>-1.083 ± 5.234</t>
@@ -337,7 +337,7 @@
     <t>14.193 ± 9.504</t>
   </si>
   <si>
-    <t>1.511 ± 5.900</t>
+    <t>-16.248 ± 7.309</t>
   </si>
   <si>
     <t>-1.709 ± 5.816</t>
@@ -850,7 +850,7 @@
     <t>0.892 ± 3.208</t>
   </si>
   <si>
-    <t>-0.117 ± 4.004</t>
+    <t>-5.766 ± 7.048</t>
   </si>
   <si>
     <t>-0.633 ± 4.123</t>
@@ -877,7 +877,7 @@
     <t>1.715 ± 5.624</t>
   </si>
   <si>
-    <t>-14.882 ± 16.582</t>
+    <t>-36.069 ± 5.770</t>
   </si>
   <si>
     <t>-1.574 ± 9.770</t>
@@ -907,7 +907,7 @@
     <t>15.236 ± 9.026</t>
   </si>
   <si>
-    <t>4.214 ± 6.765</t>
+    <t>-20.817 ± 9.278</t>
   </si>
   <si>
     <t>-4.619 ± 7.725</t>
@@ -934,7 +934,7 @@
     <t>2.187 ± 7.725</t>
   </si>
   <si>
-    <t>3.188 ± 6.039</t>
+    <t>-18.228 ± 6.379</t>
   </si>
   <si>
     <t>-4.234 ± 6.602</t>
@@ -964,7 +964,7 @@
     <t>7.519 ± 9.035</t>
   </si>
   <si>
-    <t>3.631 ± 7.113</t>
+    <t>-19.646 ± 8.524</t>
   </si>
   <si>
     <t>-4.262 ± 7.521</t>
@@ -994,7 +994,7 @@
     <t>2.802 ± 9.479</t>
   </si>
   <si>
-    <t>3.045 ± 5.088</t>
+    <t>-14.132 ± 6.815</t>
   </si>
   <si>
     <t>-0.997 ± 5.083</t>
@@ -1024,7 +1024,7 @@
     <t>14.232 ± 9.562</t>
   </si>
   <si>
-    <t>1.470 ± 5.637</t>
+    <t>-16.451 ± 7.160</t>
   </si>
   <si>
     <t>-1.840 ± 5.716</t>
